--- a/stage2/data/reader.xlsx
+++ b/stage2/data/reader.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\PycharmProjects\pythonProject\venv\MPH3013\S1\anneal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weli/Documents/VSCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4777D85E-A57B-4B19-8279-67A8E89C17C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA5DA73-BA11-484A-A221-C68F79E992C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37:G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -504,7 +504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -527,7 +527,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -550,7 +550,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -573,7 +573,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -596,7 +596,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -619,7 +619,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -642,7 +642,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -665,7 +665,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -688,7 +688,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -711,7 +711,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -734,7 +734,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -757,7 +757,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -780,7 +780,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -803,7 +803,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -826,7 +826,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -849,7 +849,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -872,7 +872,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -895,7 +895,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -918,7 +918,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -941,7 +941,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -964,7 +964,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -987,7 +987,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1270,8 +1270,11 @@
       <c r="F37">
         <v>300</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1287,8 +1290,11 @@
       <c r="F38">
         <v>300</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1304,8 +1310,11 @@
       <c r="F39">
         <v>300</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1321,8 +1330,11 @@
       <c r="F40">
         <v>300</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1338,8 +1350,11 @@
       <c r="F41">
         <v>300</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1355,8 +1370,11 @@
       <c r="F42">
         <v>300</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1372,8 +1390,11 @@
       <c r="F43">
         <v>300</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1389,8 +1410,11 @@
       <c r="F44">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1406,8 +1430,11 @@
       <c r="F45">
         <v>300</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1423,8 +1450,11 @@
       <c r="F46">
         <v>300</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1441,7 +1471,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1458,7 +1488,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1475,7 +1505,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1492,7 +1522,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1505,8 +1535,11 @@
       <c r="E51">
         <v>123</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1519,8 +1552,11 @@
       <c r="E52">
         <v>125</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1533,8 +1569,11 @@
       <c r="E53">
         <v>127</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1547,8 +1586,11 @@
       <c r="E54">
         <v>129</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1558,8 +1600,11 @@
       <c r="E55">
         <v>131</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1569,8 +1614,11 @@
       <c r="E56">
         <v>133</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1580,8 +1628,11 @@
       <c r="E57">
         <v>135</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1591,8 +1642,11 @@
       <c r="E58">
         <v>137</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1602,8 +1656,11 @@
       <c r="E59">
         <v>139</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1613,8 +1670,11 @@
       <c r="E60">
         <v>141</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1625,7 +1685,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1636,7 +1696,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1647,7 +1707,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1658,7 +1718,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1669,7 +1729,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1680,7 +1740,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1691,7 +1751,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1702,7 +1762,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1713,7 +1773,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1724,7 +1784,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1735,7 +1795,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1746,7 +1806,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1757,7 +1817,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1768,7 +1828,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1779,7 +1839,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1790,7 +1850,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1801,7 +1861,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1812,7 +1872,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1823,7 +1883,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1834,7 +1894,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1845,7 +1905,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1856,7 +1916,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1867,7 +1927,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1878,7 +1938,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1889,7 +1949,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1900,7 +1960,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1911,7 +1971,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1922,7 +1982,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1933,7 +1993,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1944,7 +2004,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1955,7 +2015,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1966,7 +2026,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1977,7 +2037,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1988,7 +2048,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1999,7 +2059,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2010,7 +2070,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2021,7 +2081,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2032,7 +2092,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2043,7 +2103,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2054,7 +2114,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2065,7 +2125,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2076,7 +2136,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2087,7 +2147,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2098,7 +2158,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2109,7 +2169,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2120,7 +2180,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2131,7 +2191,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2142,7 +2202,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2153,7 +2213,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2164,7 +2224,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2175,7 +2235,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -2186,7 +2246,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2197,7 +2257,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2208,7 +2268,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2219,7 +2279,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2230,7 +2290,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2241,7 +2301,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2252,7 +2312,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2263,7 +2323,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2274,7 +2334,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -2282,7 +2342,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2290,7 +2350,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2298,7 +2358,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -2306,7 +2366,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -2314,7 +2374,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -2322,7 +2382,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -2330,7 +2390,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -2338,7 +2398,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -2346,7 +2406,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -2354,7 +2414,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -2362,7 +2422,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -2370,7 +2430,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -2378,7 +2438,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -2386,7 +2446,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -2394,7 +2454,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -2402,7 +2462,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -2410,7 +2470,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -2418,7 +2478,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -2426,7 +2486,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -2434,7 +2494,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -2442,7 +2502,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -2450,7 +2510,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -2458,7 +2518,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -2466,7 +2526,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -2474,7 +2534,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -2482,7 +2542,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -2490,7 +2550,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -2498,7 +2558,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -2506,7 +2566,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -2514,7 +2574,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -2522,7 +2582,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -2530,7 +2590,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -2538,7 +2598,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -2546,7 +2606,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -2554,7 +2614,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -2562,7 +2622,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -2570,7 +2630,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -2578,7 +2638,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -2586,11 +2646,91 @@
         <v>300</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
       <c r="E160">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="E161">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="E162">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="E163">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="E164">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="E165">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="E166">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="E167">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="E168">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="E169">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="E170">
         <v>300</v>
       </c>
     </row>
